--- a/KetQuaTest_ProductsManagerServlet.xlsx
+++ b/KetQuaTest_ProductsManagerServlet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -35,74 +35,143 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>PROD_MGR_05</t>
+  </si>
+  <si>
+    <t>Lưu Sản phẩm mới</t>
+  </si>
+  <si>
+    <t>Full Data</t>
+  </si>
+  <si>
+    <t>Action='SaveOrUpdate'</t>
+  </si>
+  <si>
+    <t>Call Service Save -&gt; Redirect List</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>PROD_MGR_07</t>
+  </si>
+  <si>
+    <t>Xóa ID rác (Chữ)</t>
+  </si>
+  <si>
+    <t>ID='abc'</t>
+  </si>
+  <si>
+    <t>Ko gọi service -&gt; Redirect</t>
+  </si>
+  <si>
+    <t>PROD_MGR_04</t>
+  </si>
+  <si>
+    <t>Hiện form sửa SP</t>
+  </si>
+  <si>
+    <t>ID=5</t>
+  </si>
+  <si>
+    <t>Action='AddOrEdit', ID=5</t>
+  </si>
+  <si>
+    <t>Forward ProductsManager.jsp</t>
+  </si>
+  <si>
+    <t>PROD_MGR_08</t>
+  </si>
+  <si>
+    <t>Lỗi hệ thống (Exception)</t>
+  </si>
+  <si>
+    <t>DB Error</t>
+  </si>
+  <si>
+    <t>Service ném lỗi</t>
+  </si>
+  <si>
+    <t>Set Error Attribute &amp; Reload List</t>
+  </si>
+  <si>
     <t>PROD_MGR_03</t>
   </si>
   <si>
-    <t>Lưu Sản phẩm mới</t>
-  </si>
-  <si>
-    <t>1. Action='SaveOrUpdate'
-2. Params đầy đủ</t>
-  </si>
-  <si>
-    <t>Name='Ao Moi', Price=200</t>
-  </si>
-  <si>
-    <t>Call Service Save -&gt; Redirect List</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>PASS</t>
+    <t>Phân trang (Page 2)</t>
+  </si>
+  <si>
+    <t>Page=2</t>
+  </si>
+  <si>
+    <t>Data=20 items, Page=2</t>
+  </si>
+  <si>
+    <t>Cắt list từ index 8-&gt;16</t>
+  </si>
+  <si>
+    <t>PROD_MGR_06</t>
+  </si>
+  <si>
+    <t>Xóa Sản phẩm</t>
+  </si>
+  <si>
+    <t>ID=10</t>
+  </si>
+  <si>
+    <t>Action='Delete', ID=10</t>
+  </si>
+  <si>
+    <t>Call Service Delete -&gt; Redirect List</t>
   </si>
   <si>
     <t>PROD_MGR_02</t>
   </si>
   <si>
-    <t>Hiện form sửa SP</t>
-  </si>
-  <si>
-    <t>1. Action='AddOrEdit', ID=5
-2. Service trả SP</t>
-  </si>
-  <si>
-    <t>ID=5</t>
-  </si>
-  <si>
-    <t>Forward ProductsManager.jsp</t>
-  </si>
-  <si>
-    <t>PROD_MGR_04</t>
-  </si>
-  <si>
-    <t>Xóa Sản phẩm</t>
-  </si>
-  <si>
-    <t>1. Action='Delete'
-2. ID=10</t>
-  </si>
-  <si>
-    <t>ID=10</t>
-  </si>
-  <si>
-    <t>Call Service Delete -&gt; Redirect List</t>
+    <t>Tìm kiếm Sản phẩm</t>
+  </si>
+  <si>
+    <t>Key='Ao'</t>
+  </si>
+  <si>
+    <t>Action='List', Keyword='Ao'</t>
+  </si>
+  <si>
+    <t>Gọi searchProducts, Forward</t>
   </si>
   <si>
     <t>PROD_MGR_01</t>
   </si>
   <si>
     <t>Xem danh sách SP</t>
+  </si>
+  <si>
+    <t>List size=1</t>
   </si>
   <si>
     <t>1. Action='List'
 2. Service trả list</t>
   </si>
   <si>
-    <t>List size=1</t>
-  </si>
-  <si>
     <t>Forward View-products.jsp</t>
+  </si>
+  <si>
+    <t>PROD_MGR_09</t>
+  </si>
+  <si>
+    <t>Action Null</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Action=null</t>
+  </si>
+  <si>
+    <t>Mặc định là List</t>
   </si>
 </sst>
 </file>
@@ -180,16 +249,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.0625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.8125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.4765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="24.828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.80859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="25.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="31.3125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
@@ -252,10 +321,10 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -266,19 +335,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -289,24 +358,139 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s" s="2">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>13</v>
       </c>
     </row>
